--- a/va_facility_data_2025-02-20/Birmingham VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Birmingham%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Birmingham VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Birmingham%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Re31473be56e540e2bf9a12652b64b1dd"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R0ab091289789470895652bea4bb1ce22"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R9e4d32aa2dac4ac99575a25fe7294322"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rd7336fdc5f0e45409db6adc7db61f531"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R59e1b84d65c94519bf1b3f36efb4bc7b"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R78190778726344319ecffc81454feff7"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R7caf98565a1345d780c239db3e2d13ef"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R4398d64f87cf4e56973bad5bb37c62e9"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rba1298a94b4e4d83ae0f60713ddb62c3"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R9a5ea0472cd744fa8e4b670f69dc48e2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R0c7d2ea907954134af818d75105aad05"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R083bc7bb2e9a4dc795fefc3c86f81314"/>
   </x:sheets>
 </x:workbook>
 </file>
